--- a/Challenges/Challenge 5/Challenge 5 - Orbit Angle vs Time.xlsx
+++ b/Challenges/Challenge 5/Challenge 5 - Orbit Angle vs Time.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidis\Desktop\BPhO\Challenges\Challenge 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C210BA5-AD0E-435F-9C89-1D7C6F77E513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72B6776-7974-4633-8994-8763FBA1569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9AE62977-D1A8-46FA-9639-EDC6F1E81DC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Time (years)</t>
   </si>
@@ -134,7 +131,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Orbit Angle vs Time for Circular Pluto Orbit</a:t>
+              <a:t>Orbit Angle vs Time for Pluto's Orbit</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -170,9 +167,19 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10821159233696125"/>
+          <c:y val="0.17012249868717871"/>
+          <c:w val="0.83663277163946093"/>
+          <c:h val="0.62621070294267001"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -194,10 +201,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$22</c:f>
+              <c:f>Sheet1!$A$4:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -221,19 +228,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$22</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -257,17 +261,72 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6013-446E-9AEB-E78453E1E316}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Eccentric Orbit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$7:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$7:$M$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C300-468E-952C-ED1B63BD5902}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -286,7 +345,7 @@
         <c:axId val="373233328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="700"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -526,6 +585,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1348055862948179"/>
+          <c:y val="0.19805362956264089"/>
+          <c:w val="0.23756253727350374"/>
+          <c:h val="0.15776972498845149"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1167,207 +1267,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="challenge 4 experimentation"/>
-      <sheetName val="challenge 4 (4)"/>
-      <sheetName val="challenge 4 (3)"/>
-      <sheetName val="challenge 4 (2)(2)"/>
-      <sheetName val="challenge 4 (2)"/>
-      <sheetName val="challenge 4"/>
-      <sheetName val="challenge 7"/>
-      <sheetName val="challenge 2"/>
-      <sheetName val="challenge 5"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>40</v>
-          </cell>
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>80</v>
-          </cell>
-          <cell r="B4">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>120</v>
-          </cell>
-          <cell r="B5">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>160</v>
-          </cell>
-          <cell r="B6">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>200</v>
-          </cell>
-          <cell r="B7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>240</v>
-          </cell>
-          <cell r="B8">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>280</v>
-          </cell>
-          <cell r="B9">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>320</v>
-          </cell>
-          <cell r="B10">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>360</v>
-          </cell>
-          <cell r="B11">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>400</v>
-          </cell>
-          <cell r="B12">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>440</v>
-          </cell>
-          <cell r="B13">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>480</v>
-          </cell>
-          <cell r="B14">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>520</v>
-          </cell>
-          <cell r="B15">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>560</v>
-          </cell>
-          <cell r="B16">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>600</v>
-          </cell>
-          <cell r="B17">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>640</v>
-          </cell>
-          <cell r="B18">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>680</v>
-          </cell>
-          <cell r="B19">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>720</v>
-          </cell>
-          <cell r="B20">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>760</v>
-          </cell>
-          <cell r="B21">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>800</v>
-          </cell>
-          <cell r="B22">
-            <v>20</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,96 +1566,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C8D2BC-127C-456F-86FD-286CA6B8086D}">
-  <dimension ref="A3:B12"/>
+  <dimension ref="A3:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
       <c r="B5">
         <v>2.5</v>
       </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>200</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="K6">
+        <v>200</v>
+      </c>
+      <c r="L6">
+        <v>5.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300</v>
       </c>
       <c r="B7">
         <v>7.5</v>
       </c>
+      <c r="K7">
+        <v>300</v>
+      </c>
+      <c r="L7">
+        <v>6.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>400</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+      <c r="L8">
+        <v>10.8</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>500</v>
       </c>
       <c r="B9">
         <v>12.5</v>
       </c>
+      <c r="K9">
+        <v>500</v>
+      </c>
+      <c r="L9">
+        <v>11.8</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>600</v>
       </c>
       <c r="B10">
         <v>15</v>
       </c>
+      <c r="K10">
+        <v>600</v>
+      </c>
+      <c r="L10">
+        <v>15.8</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>700</v>
       </c>
       <c r="B11">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>800</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
+      <c r="K11">
+        <v>700</v>
+      </c>
+      <c r="L11">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
